--- a/configuration_scramble.xlsx
+++ b/configuration_scramble.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Scramble CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EDCBBA-5168-4FDB-9E9C-4C5D83E045CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F58EA-2376-4632-B70E-BA060DA661BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46875" yWindow="3255" windowWidth="28245" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47910" yWindow="5280" windowWidth="21450" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanation" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Variable</t>
   </si>
@@ -86,55 +86,64 @@
     <t>Item</t>
   </si>
   <si>
-    <t>input_file</t>
-  </si>
-  <si>
-    <t>output_file</t>
-  </si>
-  <si>
     <t>id_column</t>
   </si>
   <si>
     <t>the location and name of the file to be scrambled</t>
   </si>
   <si>
-    <t>the location and the name the scrambled data will be written as CSV file</t>
-  </si>
-  <si>
-    <t>./Source/test.csv</t>
-  </si>
-  <si>
-    <t>./Scrambled/scrambled.csv</t>
-  </si>
-  <si>
     <t>subjid</t>
   </si>
   <si>
     <t>DontScramble</t>
   </si>
   <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>List with variables that will not be scrambled</t>
+  </si>
+  <si>
+    <t>DropVariables</t>
+  </si>
+  <si>
+    <t>List with variables that will be deleted from the scrambled dataset and therefore don't need to be scrambled</t>
+  </si>
+  <si>
+    <t>input_folder</t>
+  </si>
+  <si>
+    <t>output_folder</t>
+  </si>
+  <si>
+    <t>./Scrambled/</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>./Source/</t>
+  </si>
+  <si>
+    <t>SCRAMBLED</t>
+  </si>
+  <si>
+    <t>date_2</t>
+  </si>
+  <si>
     <t>date_1</t>
   </si>
   <si>
-    <t>date_2</t>
-  </si>
-  <si>
     <t>skip_1</t>
   </si>
   <si>
     <t>skip_2</t>
   </si>
   <si>
-    <t>Sheet</t>
-  </si>
-  <si>
-    <t>List with variables that will not be scrambled</t>
-  </si>
-  <si>
-    <t>DropVariables</t>
-  </si>
-  <si>
-    <t>List with variables that will be deleted from the scrambled dataset and therefore don't need to be scrambled</t>
+    <t>the location and the name the scrambled data will be written to</t>
+  </si>
+  <si>
+    <t>Variable containing the IDs, this will be scrambled by default</t>
   </si>
 </sst>
 </file>
@@ -229,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +251,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B9E207-9E94-47DD-9ED2-C3AF944D9E33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,56 +569,67 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -635,20 +656,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -656,28 +677,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -687,10 +717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9FFCD-09F0-49E7-84C3-568BF7EDD240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -699,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -719,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B893A7-B0B4-4FF6-BB4A-44F8E8EF6790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,17 +765,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
